--- a/artfynd/A 58719-2021.xlsx
+++ b/artfynd/A 58719-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY19"/>
+  <dimension ref="A1:AY22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2844,6 +2844,342 @@
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112044197</v>
+      </c>
+      <c r="B20" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>555034.2410396938</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6698208.976601291</v>
+      </c>
+      <c r="S20" t="n">
+        <v>15</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112044200</v>
+      </c>
+      <c r="B21" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>555045.7843747933</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6698230.888205006</v>
+      </c>
+      <c r="S21" t="n">
+        <v>15</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112044198</v>
+      </c>
+      <c r="B22" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>555034.2260561106</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6698209.964398953</v>
+      </c>
+      <c r="S22" t="n">
+        <v>15</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 58719-2021.xlsx
+++ b/artfynd/A 58719-2021.xlsx
@@ -2846,7 +2846,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112044197</v>
+        <v>112044198</v>
       </c>
       <c r="B20" t="n">
         <v>90666</v>
@@ -2886,10 +2886,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>555034.2410396938</v>
+        <v>555034.2260561106</v>
       </c>
       <c r="R20" t="n">
-        <v>6698208.976601291</v>
+        <v>6698209.964398953</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112044198</v>
+        <v>112044197</v>
       </c>
       <c r="B22" t="n">
         <v>90666</v>
@@ -3110,10 +3110,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>555034.2260561106</v>
+        <v>555034.2410396938</v>
       </c>
       <c r="R22" t="n">
-        <v>6698209.964398953</v>
+        <v>6698208.976601291</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>

--- a/artfynd/A 58719-2021.xlsx
+++ b/artfynd/A 58719-2021.xlsx
@@ -2846,7 +2846,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112044198</v>
+        <v>112044197</v>
       </c>
       <c r="B20" t="n">
         <v>90666</v>
@@ -2886,10 +2886,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>555034.2260561106</v>
+        <v>555034.2410396938</v>
       </c>
       <c r="R20" t="n">
-        <v>6698209.964398953</v>
+        <v>6698208.976601291</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112044200</v>
+        <v>112044198</v>
       </c>
       <c r="B21" t="n">
         <v>90666</v>
@@ -2998,10 +2998,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>555045.7843747933</v>
+        <v>555034.2260561106</v>
       </c>
       <c r="R21" t="n">
-        <v>6698230.888205006</v>
+        <v>6698209.964398953</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112044197</v>
+        <v>112044200</v>
       </c>
       <c r="B22" t="n">
         <v>90666</v>
@@ -3110,10 +3110,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>555034.2410396938</v>
+        <v>555045.7843747933</v>
       </c>
       <c r="R22" t="n">
-        <v>6698208.976601291</v>
+        <v>6698230.888205006</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>

--- a/artfynd/A 58719-2021.xlsx
+++ b/artfynd/A 58719-2021.xlsx
@@ -2846,7 +2846,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112044197</v>
+        <v>112044198</v>
       </c>
       <c r="B20" t="n">
         <v>90666</v>
@@ -2886,10 +2886,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>555034.2410396938</v>
+        <v>555034.2260561106</v>
       </c>
       <c r="R20" t="n">
-        <v>6698208.976601291</v>
+        <v>6698209.964398953</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112044198</v>
+        <v>112044200</v>
       </c>
       <c r="B21" t="n">
         <v>90666</v>
@@ -2998,10 +2998,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>555034.2260561106</v>
+        <v>555045.7843747933</v>
       </c>
       <c r="R21" t="n">
-        <v>6698209.964398953</v>
+        <v>6698230.888205006</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112044200</v>
+        <v>112044197</v>
       </c>
       <c r="B22" t="n">
         <v>90666</v>
@@ -3110,10 +3110,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>555045.7843747933</v>
+        <v>555034.2410396938</v>
       </c>
       <c r="R22" t="n">
-        <v>6698230.888205006</v>
+        <v>6698208.976601291</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>

--- a/artfynd/A 58719-2021.xlsx
+++ b/artfynd/A 58719-2021.xlsx
@@ -2886,10 +2886,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>555034.2260561106</v>
+        <v>555034</v>
       </c>
       <c r="R20" t="n">
-        <v>6698209.964398953</v>
+        <v>6698210</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2919,19 +2919,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2958,7 +2948,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112044200</v>
+        <v>112044197</v>
       </c>
       <c r="B21" t="n">
         <v>90666</v>
@@ -2998,10 +2988,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>555045.7843747933</v>
+        <v>555034</v>
       </c>
       <c r="R21" t="n">
-        <v>6698230.888205006</v>
+        <v>6698209</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -3031,19 +3021,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3070,7 +3050,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112044197</v>
+        <v>112044200</v>
       </c>
       <c r="B22" t="n">
         <v>90666</v>
@@ -3110,10 +3090,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>555034.2410396938</v>
+        <v>555046</v>
       </c>
       <c r="R22" t="n">
-        <v>6698208.976601291</v>
+        <v>6698231</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3143,19 +3123,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 58719-2021.xlsx
+++ b/artfynd/A 58719-2021.xlsx
@@ -2846,10 +2846,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112044198</v>
+        <v>112044200</v>
       </c>
       <c r="B20" t="n">
-        <v>90666</v>
+        <v>90800</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2886,10 +2886,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>555034</v>
+        <v>555046</v>
       </c>
       <c r="R20" t="n">
-        <v>6698210</v>
+        <v>6698231</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2948,10 +2948,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112044197</v>
+        <v>112044198</v>
       </c>
       <c r="B21" t="n">
-        <v>90666</v>
+        <v>90800</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>555034</v>
       </c>
       <c r="R21" t="n">
-        <v>6698209</v>
+        <v>6698210</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -3050,10 +3050,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112044200</v>
+        <v>112044197</v>
       </c>
       <c r="B22" t="n">
-        <v>90666</v>
+        <v>90800</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3090,10 +3090,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>555046</v>
+        <v>555034</v>
       </c>
       <c r="R22" t="n">
-        <v>6698231</v>
+        <v>6698209</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>

--- a/artfynd/A 58719-2021.xlsx
+++ b/artfynd/A 58719-2021.xlsx
@@ -2846,10 +2846,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112044200</v>
+        <v>112044197</v>
       </c>
       <c r="B20" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2886,10 +2886,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>555046</v>
+        <v>555034</v>
       </c>
       <c r="R20" t="n">
-        <v>6698231</v>
+        <v>6698209</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2948,10 +2948,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112044198</v>
+        <v>112044200</v>
       </c>
       <c r="B21" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2988,10 +2988,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>555034</v>
+        <v>555046</v>
       </c>
       <c r="R21" t="n">
-        <v>6698210</v>
+        <v>6698231</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -3050,10 +3050,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112044197</v>
+        <v>112044198</v>
       </c>
       <c r="B22" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>555034</v>
       </c>
       <c r="R22" t="n">
-        <v>6698209</v>
+        <v>6698210</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>

--- a/artfynd/A 58719-2021.xlsx
+++ b/artfynd/A 58719-2021.xlsx
@@ -2846,7 +2846,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112044197</v>
+        <v>112044200</v>
       </c>
       <c r="B20" t="n">
         <v>90814</v>
@@ -2886,10 +2886,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>555034</v>
+        <v>555046</v>
       </c>
       <c r="R20" t="n">
-        <v>6698209</v>
+        <v>6698231</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112044200</v>
+        <v>112044197</v>
       </c>
       <c r="B21" t="n">
         <v>90814</v>
@@ -2988,10 +2988,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>555046</v>
+        <v>555034</v>
       </c>
       <c r="R21" t="n">
-        <v>6698231</v>
+        <v>6698209</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
